--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H2">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I2">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J2">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.65585404625546</v>
+        <v>3.005984666666667</v>
       </c>
       <c r="N2">
-        <v>2.65585404625546</v>
+        <v>9.017954</v>
       </c>
       <c r="O2">
-        <v>0.6012391320833181</v>
+        <v>0.5024819575990099</v>
       </c>
       <c r="P2">
-        <v>0.6012391320833181</v>
+        <v>0.5387571684551946</v>
       </c>
       <c r="Q2">
-        <v>2.241263658984995</v>
+        <v>3.223712144052889</v>
       </c>
       <c r="R2">
-        <v>2.241263658984995</v>
+        <v>29.013409296476</v>
       </c>
       <c r="S2">
-        <v>0.1661503955905449</v>
+        <v>0.1477072539338333</v>
       </c>
       <c r="T2">
-        <v>0.1661503955905449</v>
+        <v>0.1826473553183559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H3">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I3">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J3">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.18529764527184</v>
+        <v>1.246848333333333</v>
       </c>
       <c r="N3">
-        <v>1.18529764527184</v>
+        <v>3.740545</v>
       </c>
       <c r="O3">
-        <v>0.2683307572976071</v>
+        <v>0.2084238147685372</v>
       </c>
       <c r="P3">
-        <v>0.2683307572976071</v>
+        <v>0.2234703606471308</v>
       </c>
       <c r="Q3">
-        <v>1.000267518907451</v>
+        <v>1.337159220581111</v>
       </c>
       <c r="R3">
-        <v>1.000267518907451</v>
+        <v>12.03443298523</v>
       </c>
       <c r="S3">
-        <v>0.0741522949772499</v>
+        <v>0.06126729302078172</v>
       </c>
       <c r="T3">
-        <v>0.0741522949772499</v>
+        <v>0.07576005063890319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H4">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I4">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J4">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0875817098992583</v>
+        <v>0.2670836666666667</v>
       </c>
       <c r="N4">
-        <v>0.0875817098992583</v>
+        <v>0.801251</v>
       </c>
       <c r="O4">
-        <v>0.01982697479947963</v>
+        <v>0.0446458443908856</v>
       </c>
       <c r="P4">
-        <v>0.01982697479947963</v>
+        <v>0.04786892015438238</v>
       </c>
       <c r="Q4">
-        <v>0.07390982342035413</v>
+        <v>0.2864288927548889</v>
       </c>
       <c r="R4">
-        <v>0.07390982342035413</v>
+        <v>2.577860034794</v>
       </c>
       <c r="S4">
-        <v>0.005479117260519223</v>
+        <v>0.01312388430033441</v>
       </c>
       <c r="T4">
-        <v>0.005479117260519223</v>
+        <v>0.01622833473049297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H5">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I5">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J5">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.488567310609296</v>
+        <v>0.2539746666666667</v>
       </c>
       <c r="N5">
-        <v>0.488567310609296</v>
+        <v>0.761924</v>
       </c>
       <c r="O5">
-        <v>0.1106031358195952</v>
+        <v>0.04245453714464147</v>
       </c>
       <c r="P5">
-        <v>0.1106031358195952</v>
+        <v>0.04551941790987798</v>
       </c>
       <c r="Q5">
-        <v>0.412299824902096</v>
+        <v>0.2723703904062222</v>
       </c>
       <c r="R5">
-        <v>0.412299824902096</v>
+        <v>2.451333513656</v>
       </c>
       <c r="S5">
-        <v>0.03056480157288548</v>
+        <v>0.01247973783701736</v>
       </c>
       <c r="T5">
-        <v>0.03056480157288548</v>
+        <v>0.01543181563729234</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8506916160840849</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H6">
-        <v>0.8506916160840849</v>
+        <v>3.217294</v>
       </c>
       <c r="I6">
-        <v>0.278572055213021</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J6">
-        <v>0.278572055213021</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.65585404625546</v>
+        <v>1.2083825</v>
       </c>
       <c r="N6">
-        <v>2.65585404625546</v>
+        <v>2.416765</v>
       </c>
       <c r="O6">
-        <v>0.6012391320833181</v>
+        <v>0.2019938460969258</v>
       </c>
       <c r="P6">
-        <v>0.6012391320833181</v>
+        <v>0.1443841328334141</v>
       </c>
       <c r="Q6">
-        <v>2.259312770692513</v>
+        <v>1.295907255651666</v>
       </c>
       <c r="R6">
-        <v>2.259312770692513</v>
+        <v>7.775443533909999</v>
       </c>
       <c r="S6">
-        <v>0.167488420698943</v>
+        <v>0.05937716940340358</v>
       </c>
       <c r="T6">
-        <v>0.167488420698943</v>
+        <v>0.04894854594245727</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H7">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I7">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J7">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.18529764527184</v>
+        <v>3.005984666666667</v>
       </c>
       <c r="N7">
-        <v>1.18529764527184</v>
+        <v>9.017954</v>
       </c>
       <c r="O7">
-        <v>0.2683307572976071</v>
+        <v>0.5024819575990099</v>
       </c>
       <c r="P7">
-        <v>0.2683307572976071</v>
+        <v>0.5387571684551946</v>
       </c>
       <c r="Q7">
-        <v>1.008322769396962</v>
+        <v>3.369217833837778</v>
       </c>
       <c r="R7">
-        <v>1.008322769396962</v>
+        <v>30.32296050454</v>
       </c>
       <c r="S7">
-        <v>0.07474945053726076</v>
+        <v>0.1543741785565926</v>
       </c>
       <c r="T7">
-        <v>0.07474945053726076</v>
+        <v>0.1908913387248803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H8">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I8">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J8">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0875817098992583</v>
+        <v>1.246848333333333</v>
       </c>
       <c r="N8">
-        <v>0.0875817098992583</v>
+        <v>3.740545</v>
       </c>
       <c r="O8">
-        <v>0.01982697479947963</v>
+        <v>0.2084238147685372</v>
       </c>
       <c r="P8">
-        <v>0.01982697479947963</v>
+        <v>0.2234703606471308</v>
       </c>
       <c r="Q8">
-        <v>0.07450502633360755</v>
+        <v>1.397513329772222</v>
       </c>
       <c r="R8">
-        <v>0.07450502633360755</v>
+        <v>12.57761996795</v>
       </c>
       <c r="S8">
-        <v>0.005523241118547816</v>
+        <v>0.06403265771027103</v>
       </c>
       <c r="T8">
-        <v>0.005523241118547816</v>
+        <v>0.07917956141832808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H9">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I9">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J9">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.488567310609296</v>
+        <v>0.2670836666666667</v>
       </c>
       <c r="N9">
-        <v>0.488567310609296</v>
+        <v>0.801251</v>
       </c>
       <c r="O9">
-        <v>0.1106031358195952</v>
+        <v>0.0446458443908856</v>
       </c>
       <c r="P9">
-        <v>0.1106031358195952</v>
+        <v>0.04786892015438238</v>
       </c>
       <c r="Q9">
-        <v>0.4156201150280771</v>
+        <v>0.2993571666677778</v>
       </c>
       <c r="R9">
-        <v>0.4156201150280771</v>
+        <v>2.694214500010001</v>
       </c>
       <c r="S9">
-        <v>0.03081094285826953</v>
+        <v>0.0137162448314383</v>
       </c>
       <c r="T9">
-        <v>0.03081094285826953</v>
+        <v>0.0169608179465818</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.35917064688581</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H10">
-        <v>1.35917064688581</v>
+        <v>3.36251</v>
       </c>
       <c r="I10">
-        <v>0.4450813353857795</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J10">
-        <v>0.4450813353857795</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.65585404625546</v>
+        <v>0.2539746666666667</v>
       </c>
       <c r="N10">
-        <v>2.65585404625546</v>
+        <v>0.761924</v>
       </c>
       <c r="O10">
-        <v>0.6012391320833181</v>
+        <v>0.04245453714464147</v>
       </c>
       <c r="P10">
-        <v>0.6012391320833181</v>
+        <v>0.04551941790987798</v>
       </c>
       <c r="Q10">
-        <v>3.60975886208333</v>
+        <v>0.2846641188044445</v>
       </c>
       <c r="R10">
-        <v>3.60975886208333</v>
+        <v>2.561977069240001</v>
       </c>
       <c r="S10">
-        <v>0.2676003157938303</v>
+        <v>0.01304302412970317</v>
       </c>
       <c r="T10">
-        <v>0.2676003157938303</v>
+        <v>0.01612834711361532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.35917064688581</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H11">
-        <v>1.35917064688581</v>
+        <v>3.36251</v>
       </c>
       <c r="I11">
-        <v>0.4450813353857795</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J11">
-        <v>0.4450813353857795</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.18529764527184</v>
+        <v>1.2083825</v>
       </c>
       <c r="N11">
-        <v>1.18529764527184</v>
+        <v>2.416765</v>
       </c>
       <c r="O11">
-        <v>0.2683307572976071</v>
+        <v>0.2019938460969258</v>
       </c>
       <c r="P11">
-        <v>0.2683307572976071</v>
+        <v>0.1443841328334141</v>
       </c>
       <c r="Q11">
-        <v>1.611021767276354</v>
+        <v>1.354399413358333</v>
       </c>
       <c r="R11">
-        <v>1.611021767276354</v>
+        <v>8.126396480149999</v>
       </c>
       <c r="S11">
-        <v>0.1194290117830965</v>
+        <v>0.062057221345217</v>
       </c>
       <c r="T11">
-        <v>0.1194290117830965</v>
+        <v>0.05115789082905449</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H12">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I12">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J12">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0875817098992583</v>
+        <v>3.005984666666667</v>
       </c>
       <c r="N12">
-        <v>0.0875817098992583</v>
+        <v>9.017954</v>
       </c>
       <c r="O12">
-        <v>0.01982697479947963</v>
+        <v>0.5024819575990099</v>
       </c>
       <c r="P12">
-        <v>0.01982697479947963</v>
+        <v>0.5387571684551946</v>
       </c>
       <c r="Q12">
-        <v>0.1190384892991403</v>
+        <v>0.0007945819468888888</v>
       </c>
       <c r="R12">
-        <v>0.1190384892991403</v>
+        <v>0.007151237521999999</v>
       </c>
       <c r="S12">
-        <v>0.008824616420412592</v>
+        <v>3.640694707090176E-05</v>
       </c>
       <c r="T12">
-        <v>0.008824616420412592</v>
+        <v>4.501899819147899E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.000793</v>
+      </c>
+      <c r="I13">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J13">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.246848333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.740545</v>
+      </c>
+      <c r="O13">
+        <v>0.2084238147685372</v>
+      </c>
+      <c r="P13">
+        <v>0.2234703606471308</v>
+      </c>
+      <c r="Q13">
+        <v>0.0003295835761111111</v>
+      </c>
+      <c r="R13">
+        <v>0.002966252185</v>
+      </c>
+      <c r="S13">
+        <v>1.51011885657574E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.867336965681415E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.000793</v>
+      </c>
+      <c r="I14">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2670836666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.801251</v>
+      </c>
+      <c r="O14">
+        <v>0.0446458443908856</v>
+      </c>
+      <c r="P14">
+        <v>0.04786892015438238</v>
+      </c>
+      <c r="Q14">
+        <v>7.059911588888889E-05</v>
+      </c>
+      <c r="R14">
+        <v>0.000635392043</v>
+      </c>
+      <c r="S14">
+        <v>3.234780610713596E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.999966879396451E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.000793</v>
+      </c>
+      <c r="I15">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.2539746666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.761924</v>
+      </c>
+      <c r="O15">
+        <v>0.04245453714464147</v>
+      </c>
+      <c r="P15">
+        <v>0.04551941790987798</v>
+      </c>
+      <c r="Q15">
+        <v>6.713397022222222E-05</v>
+      </c>
+      <c r="R15">
+        <v>0.000604205732</v>
+      </c>
+      <c r="S15">
+        <v>3.076011115165342E-06</v>
+      </c>
+      <c r="T15">
+        <v>3.803640512919499E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.000793</v>
+      </c>
+      <c r="I16">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.2083825</v>
+      </c>
+      <c r="N16">
+        <v>2.416765</v>
+      </c>
+      <c r="O16">
+        <v>0.2019938460969258</v>
+      </c>
+      <c r="P16">
+        <v>0.1443841328334141</v>
+      </c>
+      <c r="Q16">
+        <v>0.0003194157741666666</v>
+      </c>
+      <c r="R16">
+        <v>0.001916494645</v>
+      </c>
+      <c r="S16">
+        <v>1.463531008881969E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.206485852159256E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.4547475</v>
+      </c>
+      <c r="H17">
+        <v>2.909495</v>
+      </c>
+      <c r="I17">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J17">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.005984666666667</v>
+      </c>
+      <c r="N17">
+        <v>9.017954</v>
+      </c>
+      <c r="O17">
+        <v>0.5024819575990099</v>
+      </c>
+      <c r="P17">
+        <v>0.5387571684551946</v>
+      </c>
+      <c r="Q17">
+        <v>4.372948678871666</v>
+      </c>
+      <c r="R17">
+        <v>26.23769207323</v>
+      </c>
+      <c r="S17">
+        <v>0.2003641181615132</v>
+      </c>
+      <c r="T17">
+        <v>0.1651734554137669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.4547475</v>
+      </c>
+      <c r="H18">
+        <v>2.909495</v>
+      </c>
+      <c r="I18">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J18">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.246848333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.740545</v>
+      </c>
+      <c r="O18">
+        <v>0.2084238147685372</v>
+      </c>
+      <c r="P18">
+        <v>0.2234703606471308</v>
+      </c>
+      <c r="Q18">
+        <v>1.813849495795833</v>
+      </c>
+      <c r="R18">
+        <v>10.883096974775</v>
+      </c>
+      <c r="S18">
+        <v>0.08310876284891866</v>
+      </c>
+      <c r="T18">
+        <v>0.06851207522024273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.4547475</v>
+      </c>
+      <c r="H19">
+        <v>2.909495</v>
+      </c>
+      <c r="I19">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J19">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2670836666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.801251</v>
+      </c>
+      <c r="O19">
+        <v>0.0446458443908856</v>
+      </c>
+      <c r="P19">
+        <v>0.04786892015438238</v>
+      </c>
+      <c r="Q19">
+        <v>0.3885392963741666</v>
+      </c>
+      <c r="R19">
+        <v>2.331235778245</v>
+      </c>
+      <c r="S19">
+        <v>0.01780248047850218</v>
+      </c>
+      <c r="T19">
+        <v>0.01467576751042822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.35917064688581</v>
-      </c>
-      <c r="H13">
-        <v>1.35917064688581</v>
-      </c>
-      <c r="I13">
-        <v>0.4450813353857795</v>
-      </c>
-      <c r="J13">
-        <v>0.4450813353857795</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.488567310609296</v>
-      </c>
-      <c r="N13">
-        <v>0.488567310609296</v>
-      </c>
-      <c r="O13">
-        <v>0.1106031358195952</v>
-      </c>
-      <c r="P13">
-        <v>0.1106031358195952</v>
-      </c>
-      <c r="Q13">
-        <v>0.6640463476080973</v>
-      </c>
-      <c r="R13">
-        <v>0.6640463476080973</v>
-      </c>
-      <c r="S13">
-        <v>0.04922739138844016</v>
-      </c>
-      <c r="T13">
-        <v>0.04922739138844016</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.4547475</v>
+      </c>
+      <c r="H20">
+        <v>2.909495</v>
+      </c>
+      <c r="I20">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J20">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.2539746666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.761924</v>
+      </c>
+      <c r="O20">
+        <v>0.04245453714464147</v>
+      </c>
+      <c r="P20">
+        <v>0.04551941790987798</v>
+      </c>
+      <c r="Q20">
+        <v>0.3694690113966667</v>
+      </c>
+      <c r="R20">
+        <v>2.21681406838</v>
+      </c>
+      <c r="S20">
+        <v>0.01692869916680577</v>
+      </c>
+      <c r="T20">
+        <v>0.0139554515184574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.4547475</v>
+      </c>
+      <c r="H21">
+        <v>2.909495</v>
+      </c>
+      <c r="I21">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J21">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.2083825</v>
+      </c>
+      <c r="N21">
+        <v>2.416765</v>
+      </c>
+      <c r="O21">
+        <v>0.2019938460969258</v>
+      </c>
+      <c r="P21">
+        <v>0.1443841328334141</v>
+      </c>
+      <c r="Q21">
+        <v>1.75789142091875</v>
+      </c>
+      <c r="R21">
+        <v>7.031565683674999</v>
+      </c>
+      <c r="S21">
+        <v>0.08054482003821645</v>
+      </c>
+      <c r="T21">
+        <v>0.04426563120338076</v>
       </c>
     </row>
   </sheetData>
